--- a/idea.xlsx
+++ b/idea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\NetBeansProjects\YK chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796235FF-8B8C-454E-963B-62331A654B4D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0D28C8-3C37-4015-AC8B-93BD0B24BDEF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" xr2:uid="{1EB71BFF-F3CE-4144-A988-C111AB29C8BB}"/>
   </bookViews>
@@ -1499,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F01A42-5999-4B57-A40C-D7F8B6351847}">
   <dimension ref="B2:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
